--- a/scores/면접평가서2.xlsx
+++ b/scores/면접평가서2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\side\frontend-interview\scores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITC01\Desktop\ITCS\임익환\frontend-interview\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273F1FFA-803B-4FB3-8048-093DE9D9576A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E826BD8-AA4F-4CA9-91A5-0E4410CC6512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="360" windowWidth="22800" windowHeight="14625" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interview Agenda" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,51 +69,76 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>본인이 생각하기에 좋은 프론트엔드 코드는 무엇인가?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 자신있는 프로그래밍 언어가 무엇인가?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입스크립트 사용 이유는 무엇인가? 사용해 본 경험이 있는가?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리액트의 상태관리 라이브러리를 사용해 보았는가?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리액트 useState의 주의사항을 이해하고 관련 문제를 해결함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리액트 props의 사용 방법을 이해하고 관련 문제를 해결하였다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Total Score</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(promise 1) web api를 이해하고 setTimeout 관련 문제를 해결하였다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(promise 2) JS의 Promise를 이해하고 Promise 관련 문제를 해결하였다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(let, const) JS의 let과 const의 차이를 이해하고 관련 문제를 해결하였다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(this syntax) JS의 this 를 이해하고 있고 관련 문제를 해결하였다.</t>
+    <t>JS문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리엑트 문제 링크</t>
+  </si>
+  <si>
+    <t>JS 문제 링크</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가장 자신있는 프로그래밍 언어가 무엇인가?
+자바 - 자바를 많이 다뤄서 자바가 더 익숙함
+하지만 프론트가 더 발전할 것 같아서 프론트 지원
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입스크립트 사용 이유는 무엇인가? 사용해 본 경험이 있는가?
+답변: 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(promise 1) web api를 이해하고 setTimeout 관련 문제를 해결하였다. 
+답변: 1 3 2
+이유: setTimeout이 뭔지 모르겠으나 마지막에 실행될것같다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인이 생각하기에 좋은 프론트엔드 코드는 무엇인가?
+쉽고 주석이 잘 달린 코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(promise 2) JS의 Promise를 이해하고 Promise 관련 문제를 해결하였다.
+답변: 아무것도 안 찍힐것같다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(this syntax) JS의 this 를 이해하고 있고 관련 문제를 해결하였다.
+답변: A B C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(let, const) JS의 let과 const의 차이를 이해하고 관련 문제를 해결하였다.
+답변: 
+{name: 'Kim', age: 14}
+{name: 'Park', age: 20}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트의 상태관리 라이브러리를 사용해 보았는가?
+경험 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 useState의 주의사항을 이해하고 관련 문제를 해결함
+useState를 자세히 이해하지 못함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 props의 사용 방법을 이해하고 관련 문제를 해결하였다.
+Props의 사용법을 이해하지 못함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -424,20 +449,20 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -744,20 +769,20 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="9" customWidth="1"/>
     <col min="3" max="3" width="77" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="10"/>
       <c r="C1" s="13"/>
@@ -775,7 +800,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
@@ -789,55 +814,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="15">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="15">
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
         <v>10</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="15">
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
         <v>5</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="15">
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
         <v>10</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="15">
         <v>5</v>
       </c>
@@ -847,88 +880,115 @@
       <c r="D7" s="7">
         <v>10</v>
       </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="97.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="15">
         <v>6</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
         <v>10</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="15">
         <v>7</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
         <v>10</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="15">
         <v>8</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
         <v>10</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="15">
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
         <v>15</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>10</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D12" s="7">
         <v>15</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="22"/>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25"/>
       <c r="D13" s="20">
         <f>SUM(D3:D12)</f>
         <v>100</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="20">
+        <f>SUM(E3:E12)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>7</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26"/>
       <c r="B26" s="9"/>
       <c r="C26" s="12"/>
@@ -941,8 +1001,12 @@
     <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{0D5DC6D8-9101-475B-83B6-BB39908C490B}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{97EA44E9-6FA6-4F26-AEC0-907EF11DD905}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0" header="0.11811023622047245" footer="0"/>
-  <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="75" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>